--- a/hebrewOutputs/hebrew82Comperation_2_Common_alpha=0.2.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_2_Common_alpha=0.2.xlsx
@@ -67,12 +67,12 @@
     <t>כן, יואב.</t>
   </si>
   <si>
+    <t>agree</t>
+  </si>
+  <si>
     <t>כן.</t>
   </si>
   <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t>הוא הגיע אתך.</t>
   </si>
   <si>
@@ -109,154 +109,154 @@
     <t>?med</t>
   </si>
   <si>
+    <t>r/o</t>
+  </si>
+  <si>
     <t>אם זה לא לאחרונה?</t>
   </si>
   <si>
+    <t>כן זה משהו שהוא במשך כמה חודשים,</t>
+  </si>
+  <si>
+    <t>[?]med</t>
+  </si>
+  <si>
+    <t>זה כן כלומר במשך כמה חודשים שהוא לא מרגיש טוב.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לא זה ממש החמיר עכשיו בימים האחרונים זה לא היה, זה לא היה כזה בחודשים האלה </t>
+  </si>
+  <si>
+    <t>לי זה הרגיש שהוא חטף איזשהו וירוס.</t>
+  </si>
+  <si>
+    <t>אה עשינו כמה בדיקות כי חשבנו שאולי זה ויראלי.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> לא ידעתי בדיוק לאיזה כיוון .עשינו כמה בדיקות ...</t>
+  </si>
+  <si>
+    <t>ומתברר שזה סכרת, סכרת נעורים.</t>
+  </si>
+  <si>
+    <t>ליואב?</t>
+  </si>
+  <si>
+    <t>ליואב סכרת?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כן לפי הבדיקות ש שעשינו הוא נכון לעכשיו זה לא וירוס כלומר אפשר לשלול וירוס אהמ </t>
+  </si>
+  <si>
+    <t>לשמחתנו זה גם לא משהו אה יותר אה אה בוא נגיד אה.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(לא נשמע) זאת אומרת זה משהו שהוא בוודאות במאה אחוז הוא נקבע זהו. </t>
+  </si>
+  <si>
+    <t>אה כן.</t>
+  </si>
+  <si>
+    <t>מהבדיקות?</t>
+  </si>
+  <si>
+    <t>כן קיבלנו את הבדיקות, בדיקות דם.</t>
+  </si>
+  <si>
+    <t>משהו נבדק על ידי רופאים כבר וגם משהו מעלייך,</t>
+  </si>
+  <si>
+    <t>שעבר שבדק.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כן התייעצנו גם במרפאה של סכרת נעורים ושלחנו את זה ל להמטולוג זה, </t>
+  </si>
+  <si>
+    <t>זה החשש המרכזי כרגע לשם אנחנו חותרים לטפל  לכיוון הזה אנחנו מנסים ללכת.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">איך יכול להיות שיש לו סכרת </t>
+  </si>
+  <si>
+    <t xml:space="preserve">כי אין לנו סכרת במשפחה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">הוא לגמרי ילד רגיל כל הזמן איך </t>
+  </si>
+  <si>
+    <t>אני לא, אין לנו אף אחד במשפחה שיש לו סכרת.</t>
+  </si>
+  <si>
+    <t>אה כן יש, יש מקרים שזה, שזה מגיע האוט אוף דה בלו אה.</t>
+  </si>
+  <si>
+    <t>לילד בן חמש?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כן, כן זה זאת מחלה לצערי אוטואימונית ש ש הגוף בעצם מע מערכת </t>
+  </si>
+  <si>
+    <t>זה זה מעניין אותך לדעת.</t>
+  </si>
+  <si>
+    <t>?opinion</t>
+  </si>
+  <si>
+    <t>אני, אני יודעת מזה סכרת.</t>
+  </si>
+  <si>
+    <t>אה אוקי.</t>
+  </si>
+  <si>
+    <t>אני פשוט, אני לא אני בהלם כי.</t>
+  </si>
+  <si>
+    <t>concern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כי זה לא נראה לך, זה לא נשמע לך, </t>
+  </si>
+  <si>
+    <t>emp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">תראי בעיקרון את  כל הבדיקות יש לנו ואת כל האישורים יש לנו </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אם את רוצה ללכת לסקנד אפיניון זה אני יכולה לתת לך אמ </t>
+  </si>
+  <si>
+    <t>c-med/thera</t>
+  </si>
+  <si>
+    <t>מה שאני,</t>
+  </si>
+  <si>
+    <t>כמה זה במאה אחוז ה יכול להיות שיש פה טעות.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אה לא זה וודאי, זה וודאי </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אם את רוצה להיות שקטה בתור אימא אני אומרת לך את זה הייתי הולכת לשמוע עוד דעה או, או מ מ ממשהו מומחה לא יודעת מרפאת סכרת </t>
+  </si>
+  <si>
+    <t>אה אבל כן לצערי זה, זה אבל תראי.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">זה מחלה אוטואימונית </t>
+  </si>
+  <si>
+    <t>לא יודעים.</t>
+  </si>
+  <si>
+    <t>מה שאת אומרת, משהו שעשינו עם התזונה, שלו שהיא לא תקנית.</t>
+  </si>
+  <si>
+    <t>לא.</t>
+  </si>
+  <si>
     <t>disagree</t>
-  </si>
-  <si>
-    <t>כן זה משהו שהוא במשך כמה חודשים,</t>
-  </si>
-  <si>
-    <t>[?]med</t>
-  </si>
-  <si>
-    <t>זה כן כלומר במשך כמה חודשים שהוא לא מרגיש טוב.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">לא זה ממש החמיר עכשיו בימים האחרונים זה לא היה, זה לא היה כזה בחודשים האלה </t>
-  </si>
-  <si>
-    <t>לי זה הרגיש שהוא חטף איזשהו וירוס.</t>
-  </si>
-  <si>
-    <t>אה עשינו כמה בדיקות כי חשבנו שאולי זה ויראלי.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> לא ידעתי בדיוק לאיזה כיוון .עשינו כמה בדיקות ...</t>
-  </si>
-  <si>
-    <t>ומתברר שזה סכרת, סכרת נעורים.</t>
-  </si>
-  <si>
-    <t>ליואב?</t>
-  </si>
-  <si>
-    <t>ליואב סכרת?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">כן לפי הבדיקות ש שעשינו הוא נכון לעכשיו זה לא וירוס כלומר אפשר לשלול וירוס אהמ </t>
-  </si>
-  <si>
-    <t>לשמחתנו זה גם לא משהו אה יותר אה אה בוא נגיד אה.</t>
-  </si>
-  <si>
-    <t>r/o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(לא נשמע) זאת אומרת זה משהו שהוא בוודאות במאה אחוז הוא נקבע זהו. </t>
-  </si>
-  <si>
-    <t>אה כן.</t>
-  </si>
-  <si>
-    <t>מהבדיקות?</t>
-  </si>
-  <si>
-    <t>כן קיבלנו את הבדיקות, בדיקות דם.</t>
-  </si>
-  <si>
-    <t>משהו נבדק על ידי רופאים כבר וגם משהו מעלייך,</t>
-  </si>
-  <si>
-    <t>שעבר שבדק.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">כן התייעצנו גם במרפאה של סכרת נעורים ושלחנו את זה ל להמטולוג זה, </t>
-  </si>
-  <si>
-    <t>זה החשש המרכזי כרגע לשם אנחנו חותרים לטפל  לכיוון הזה אנחנו מנסים ללכת.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">איך יכול להיות שיש לו סכרת </t>
-  </si>
-  <si>
-    <t xml:space="preserve">כי אין לנו סכרת במשפחה </t>
-  </si>
-  <si>
-    <t xml:space="preserve">הוא לגמרי ילד רגיל כל הזמן איך </t>
-  </si>
-  <si>
-    <t>אני לא, אין לנו אף אחד במשפחה שיש לו סכרת.</t>
-  </si>
-  <si>
-    <t>אה כן יש, יש מקרים שזה, שזה מגיע האוט אוף דה בלו אה.</t>
-  </si>
-  <si>
-    <t>לילד בן חמש?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">כן, כן זה זאת מחלה לצערי אוטואימונית ש ש הגוף בעצם מע מערכת </t>
-  </si>
-  <si>
-    <t>זה זה מעניין אותך לדעת.</t>
-  </si>
-  <si>
-    <t>?opinion</t>
-  </si>
-  <si>
-    <t>אני, אני יודעת מזה סכרת.</t>
-  </si>
-  <si>
-    <t>אה אוקי.</t>
-  </si>
-  <si>
-    <t>אני פשוט, אני לא אני בהלם כי.</t>
-  </si>
-  <si>
-    <t>concern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">כי זה לא נראה לך, זה לא נשמע לך, </t>
-  </si>
-  <si>
-    <t>emp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">תראי בעיקרון את  כל הבדיקות יש לנו ואת כל האישורים יש לנו </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אם את רוצה ללכת לסקנד אפיניון זה אני יכולה לתת לך אמ </t>
-  </si>
-  <si>
-    <t>c-med/thera</t>
-  </si>
-  <si>
-    <t>מה שאני,</t>
-  </si>
-  <si>
-    <t>כמה זה במאה אחוז ה יכול להיות שיש פה טעות.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אה לא זה וודאי, זה וודאי </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אם את רוצה להיות שקטה בתור אימא אני אומרת לך את זה הייתי הולכת לשמוע עוד דעה או, או מ מ ממשהו מומחה לא יודעת מרפאת סכרת </t>
-  </si>
-  <si>
-    <t>אה אבל כן לצערי זה, זה אבל תראי.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">זה מחלה אוטואימונית </t>
-  </si>
-  <si>
-    <t>לא יודעים.</t>
-  </si>
-  <si>
-    <t>מה שאת אומרת, משהו שעשינו עם התזונה, שלו שהיא לא תקנית.</t>
-  </si>
-  <si>
-    <t>לא.</t>
   </si>
   <si>
     <t xml:space="preserve">לא, לא, לא זה שום דבר שקשור אליכם </t>
@@ -810,7 +810,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -838,7 +838,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -846,10 +846,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -902,10 +902,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -978,7 +978,7 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -986,13 +986,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -1126,13 +1126,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
         <v>17</v>
-      </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" t="s">
-        <v>6</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -1171,7 +1171,7 @@
         <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -1196,10 +1196,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -1210,13 +1210,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
         <v>34</v>
@@ -1252,13 +1252,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
         <v>17</v>
       </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -1266,13 +1266,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
         <v>20</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
         <v>20</v>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
         <v>30</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
         <v>20</v>
@@ -1336,13 +1336,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
         <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
         <v>20</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
         <v>20</v>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
         <v>34</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
         <v>20</v>
@@ -1406,10 +1406,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" t="s">
         <v>61</v>
-      </c>
-      <c r="B49" t="s">
-        <v>62</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
@@ -1434,10 +1434,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -1448,13 +1448,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" t="s">
         <v>65</v>
       </c>
-      <c r="B52" t="s">
-        <v>66</v>
-      </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
@@ -1462,10 +1462,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" t="s">
         <v>67</v>
-      </c>
-      <c r="B53" t="s">
-        <v>68</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -1476,13 +1476,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
         <v>20</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -1490,10 +1490,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" t="s">
         <v>70</v>
-      </c>
-      <c r="B55" t="s">
-        <v>71</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
         <v>11</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B57" t="s">
         <v>34</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
@@ -1546,10 +1546,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
@@ -1560,13 +1560,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B60" t="s">
         <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B62" t="s">
         <v>20</v>
@@ -1602,13 +1602,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B63" t="s">
         <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B64" t="s">
         <v>34</v>
@@ -1630,13 +1630,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" t="s">
         <v>80</v>
-      </c>
-      <c r="B65" t="s">
-        <v>20</v>
-      </c>
-      <c r="C65" t="s">
-        <v>32</v>
       </c>
       <c r="D65" t="s">
         <v>9</v>
@@ -1647,10 +1647,10 @@
         <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C66" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -1661,10 +1661,10 @@
         <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C67" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -1675,10 +1675,10 @@
         <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C68" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -1689,7 +1689,7 @@
         <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C69" t="s">
         <v>20</v>
@@ -1770,13 +1770,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" t="s">
         <v>17</v>
       </c>
-      <c r="B75" t="s">
-        <v>18</v>
-      </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
@@ -1801,7 +1801,7 @@
         <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
@@ -1857,7 +1857,7 @@
         <v>97</v>
       </c>
       <c r="B81" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C81" t="s">
         <v>6</v>
@@ -1874,7 +1874,7 @@
         <v>87</v>
       </c>
       <c r="C82" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -1885,7 +1885,7 @@
         <v>99</v>
       </c>
       <c r="B83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C83" t="s">
         <v>6</v>
@@ -1899,7 +1899,7 @@
         <v>100</v>
       </c>
       <c r="B84" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C84" t="s">
         <v>6</v>
@@ -1913,7 +1913,7 @@
         <v>101</v>
       </c>
       <c r="B85" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C85" t="s">
         <v>6</v>
@@ -1941,7 +1941,7 @@
         <v>103</v>
       </c>
       <c r="B87" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C87" t="s">
         <v>26</v>
@@ -1955,10 +1955,10 @@
         <v>104</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -2011,7 +2011,7 @@
         <v>107</v>
       </c>
       <c r="B92" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C92" t="s">
         <v>6</v>
@@ -2025,7 +2025,7 @@
         <v>108</v>
       </c>
       <c r="B93" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C93" t="s">
         <v>6</v>
@@ -2039,7 +2039,7 @@
         <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
@@ -2053,10 +2053,10 @@
         <v>110</v>
       </c>
       <c r="B95" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C95" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
@@ -2067,7 +2067,7 @@
         <v>111</v>
       </c>
       <c r="B96" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
@@ -2081,7 +2081,7 @@
         <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
@@ -2098,7 +2098,7 @@
         <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -2123,10 +2123,10 @@
         <v>116</v>
       </c>
       <c r="B100" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
@@ -2137,7 +2137,7 @@
         <v>117</v>
       </c>
       <c r="B101" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C101" t="s">
         <v>6</v>
@@ -2165,10 +2165,10 @@
         <v>119</v>
       </c>
       <c r="B103" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C103" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -2179,7 +2179,7 @@
         <v>120</v>
       </c>
       <c r="B104" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C104" t="s">
         <v>6</v>
@@ -2193,7 +2193,7 @@
         <v>121</v>
       </c>
       <c r="B105" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
@@ -2252,7 +2252,7 @@
         <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
